--- a/week1/materialdb_1.xlsx
+++ b/week1/materialdb_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/wk1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Intercalation Station/BotB/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EA09D-9FD6-BD41-AB5A-E36EDB00685E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1CD55-1E34-144B-A251-F12FA9DE75D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="460" windowWidth="19200" windowHeight="16820" xr2:uid="{F8B8AE1D-9B2A-CC47-AE0E-D6BACB543E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,9 +114,6 @@
     <t>graphite</t>
   </si>
   <si>
-    <t>LiC6</t>
-  </si>
-  <si>
     <t>lithium metal</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Li(Ni0.3333Mn0.3333Co0.3333)O2</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -692,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -709,10 +709,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>4</v>
